--- a/doc/Roadmap.xlsx
+++ b/doc/Roadmap.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="18315" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="基本原则" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="git" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A4:O13"/>
 </workbook>
 </file>
 
@@ -1329,6 +1330,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,7 +1340,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1642,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1715,33 +1716,33 @@
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" thickBot="1">
       <c r="A10" s="18"/>
@@ -2302,23 +2303,23 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="8">
+      <c r="A24" s="15">
         <v>14</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="10"/>
@@ -3313,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3928,7 +3929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="27" customFormat="1"/>
+    <row r="67" spans="1:4" s="24" customFormat="1"/>
     <row r="69" spans="1:4">
       <c r="A69">
         <v>100</v>
@@ -4108,7 +4109,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="27" customFormat="1"/>
+    <row r="88" spans="1:4" s="24" customFormat="1"/>
     <row r="91" spans="1:4">
       <c r="A91">
         <v>200</v>
